--- a/data/unchecked/manual_collect/china/sichuan/sichuanCaseStatistics_20200813.xlsx
+++ b/data/unchecked/manual_collect/china/sichuan/sichuanCaseStatistics_20200813.xlsx
@@ -10837,8 +10837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -11055,10 +11055,10 @@
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="M2" s="12">
+        <v>3</v>
+      </c>
+      <c r="N2" s="12">
         <v>1</v>
-      </c>
-      <c r="N2" s="12">
-        <v>3</v>
       </c>
       <c r="P2" s="16">
         <v>145</v>
@@ -12362,10 +12362,10 @@
         <v>3</v>
       </c>
       <c r="M39" s="12">
+        <v>3</v>
+      </c>
+      <c r="N39" s="12">
         <v>1</v>
-      </c>
-      <c r="N39" s="12">
-        <v>3</v>
       </c>
       <c r="P39" s="12">
         <v>619</v>
